--- a/Framework/Storage/Database.xlsx
+++ b/Framework/Storage/Database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>FirstName</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>ENG</t>
+  </si>
+  <si>
+    <t>Databinding</t>
   </si>
 </sst>
 </file>
@@ -673,206 +676,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" s="6" t="s">
+      <c r="R2"/>
+      <c r="S2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="s">
+      <c r="U2"/>
+      <c r="V2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V3" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>

--- a/Framework/Storage/Database.xlsx
+++ b/Framework/Storage/Database.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinir\Desktop\Imran\Workspace_New\Vodafone_QAR\Framework\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
     <sheet name="ConsumerPostpaid_Provisioning" sheetId="3" r:id="rId2"/>
-    <sheet name="FixedLine_Provisioning" sheetId="2" r:id="rId3"/>
+    <sheet name="EnterprisePrepaid_Provisioning" sheetId="4" r:id="rId3"/>
+    <sheet name="EnterprisePostpaid_Provisioning" sheetId="5" r:id="rId4"/>
+    <sheet name="FixedLine_Provisioning" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="81">
   <si>
     <t>FirstName</t>
   </si>
@@ -131,12 +133,6 @@
     <t>Kahramaa_ID</t>
   </si>
   <si>
-    <t>98083763</t>
-  </si>
-  <si>
-    <t>1126188</t>
-  </si>
-  <si>
     <t>1126189</t>
   </si>
   <si>
@@ -155,9 +151,6 @@
     <t>1126194</t>
   </si>
   <si>
-    <t>12181981</t>
-  </si>
-  <si>
     <t>Commercial License</t>
   </si>
   <si>
@@ -170,12 +163,6 @@
     <t>Add_AddressLine2</t>
   </si>
   <si>
-    <t>VFQA_mav</t>
-  </si>
-  <si>
-    <t>VFQA_test</t>
-  </si>
-  <si>
     <t>Add_POBox</t>
   </si>
   <si>
@@ -225,6 +212,60 @@
   </si>
   <si>
     <t>Databinding</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>CustomerSegment</t>
+  </si>
+  <si>
+    <t>SME Strategic</t>
+  </si>
+  <si>
+    <t>CR_Number</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Tier3</t>
+  </si>
+  <si>
+    <t>VFQA_Ent</t>
+  </si>
+  <si>
+    <t>noname@vodafone.com</t>
+  </si>
+  <si>
+    <t>02021990</t>
+  </si>
+  <si>
+    <t>IDExpiryDate</t>
+  </si>
+  <si>
+    <t>04042020</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>VQFT23</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>97498098089</t>
+  </si>
+  <si>
+    <t>Qatari</t>
+  </si>
+  <si>
+    <t>PrefLang</t>
   </si>
 </sst>
 </file>
@@ -315,7 +356,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -676,44 +857,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.28515625" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -761,49 +940,37 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -841,47 +1008,46 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="U2"/>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="W4" t="s">
-        <v>59</v>
+      <c r="W3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -890,10 +1056,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AE1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,17 +1081,17 @@
     <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,46 +1138,43 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1048,66 +1212,61 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
       <c r="V4" t="s">
         <v>59</v>
       </c>
-      <c r="W4" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,253 +1274,753 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AD4" t="s">
         <v>59</v>
       </c>
-      <c r="W4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O6" s="5" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O7" s="5" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B2">
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Framework/Storage/Database.xlsx
+++ b/Framework/Storage/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="86">
   <si>
     <t>FirstName</t>
   </si>
@@ -211,9 +211,6 @@
     <t>ENG</t>
   </si>
   <si>
-    <t>Databinding</t>
-  </si>
-  <si>
     <t>Account_Name</t>
   </si>
   <si>
@@ -266,6 +263,24 @@
   </si>
   <si>
     <t>PrefLang</t>
+  </si>
+  <si>
+    <t>Normalcustomer</t>
+  </si>
+  <si>
+    <t>VIPCustomer</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Qatari ID</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -295,7 +310,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +323,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -332,11 +353,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -352,31 +384,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -858,15 +873,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -892,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -971,6 +986,9 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1031,24 +1049,84 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V4" t="s">
-        <v>54</v>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  <conditionalFormatting sqref="C1:C2 C4:C1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>INDIRECT(XFD2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1057,10 +1135,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S2"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,22 +1154,23 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,49 +1211,52 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1214,60 +1296,71 @@
       <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" s="6" t="s">
+      <c r="R2"/>
+      <c r="S2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>5</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U4" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
         <v>54</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+      <formula1>INDIRECT(M2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1275,477 +1368,508 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:O11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>61</v>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="AD3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AC4" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>INDIRECT(XFD2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
+      <c r="AF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AC4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>INDIRECT(XFD2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1753,277 +1877,289 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
+      <c r="AF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>60</v>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>59</v>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G7" s="5" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
+  <conditionalFormatting sqref="C1:D1">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="P2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>INDIRECT(XFD2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Framework/Storage/Database.xlsx
+++ b/Framework/Storage/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="96">
   <si>
     <t>FirstName</t>
   </si>
@@ -281,13 +281,43 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>Plan_View</t>
+  </si>
+  <si>
+    <t>Plan_Catagory</t>
+  </si>
+  <si>
+    <t>Prepaid Plans</t>
+  </si>
+  <si>
+    <t>Prepaid Residential Plans</t>
+  </si>
+  <si>
+    <t>Postpaid Plans</t>
+  </si>
+  <si>
+    <t>Postpaid Consumer Plans</t>
+  </si>
+  <si>
+    <t>Prepaid Business Plans</t>
+  </si>
+  <si>
+    <t>Postpaid Business Plans</t>
+  </si>
+  <si>
+    <t>Fixed Line Plans</t>
+  </si>
+  <si>
+    <t>Fixed Line Broadband Plans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +338,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +423,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,258 +915,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2" s="6" t="s">
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3" s="6" t="s">
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C2 C4:C1048576">
+  <conditionalFormatting sqref="E1:E2 E4:E1048576">
     <cfRule type="duplicateValues" dxfId="17" priority="3"/>
     <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="E3">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>INDIRECT(XFD2)</formula1>
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,230 +1197,255 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2" s="6" t="s">
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N3" s="7" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>5</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V4" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
         <v>54</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B2">
+  <conditionalFormatting sqref="E1:E2">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
     <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
-      <formula1>INDIRECT(M2)</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
+      <formula1>INDIRECT(P2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,241 +1455,257 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="AD3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="AF3" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AD4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
     <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
+  <conditionalFormatting sqref="R2">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>INDIRECT(XFD2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3 A2">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,263 +1714,277 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
       <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AD3" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AD4" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="7" priority="3"/>
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
+  <conditionalFormatting sqref="R2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>INDIRECT(XFD2)</formula1>
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,287 +1994,301 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
       <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H3" s="5" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H4" s="5" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H5" s="5" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H6" s="5" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
+  <conditionalFormatting sqref="R2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>INDIRECT(XFD2)</formula1>
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
